--- a/trellis_statistics.xlsx
+++ b/trellis_statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hai Xia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\76794\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2672A3FF-DB58-4D60-95A8-7FC4DD84A895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092FFC5B-259C-4E94-BC62-F3DF05F5F6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cluster30_MF" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="542">
   <si>
     <t>group idx</t>
   </si>
@@ -1668,6 +1668,30 @@
   </si>
   <si>
     <t>36/100/135</t>
+  </si>
+  <si>
+    <t>189/667/444</t>
+  </si>
+  <si>
+    <t>185/667/461</t>
+  </si>
+  <si>
+    <t>184/667/425</t>
+  </si>
+  <si>
+    <t>182/667/476</t>
+  </si>
+  <si>
+    <t>694/2664/1557</t>
+  </si>
+  <si>
+    <t>697/2664/1558</t>
+  </si>
+  <si>
+    <t>734/2664/2122</t>
+  </si>
+  <si>
+    <t>726/2664/2036</t>
   </si>
 </sst>
 </file>
@@ -1759,7 +1783,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2039,21 +2063,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B33" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="112.453125" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" customWidth="1"/>
-    <col min="4" max="4" width="27.54296875" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="112.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2097,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2093,7 +2117,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2113,7 +2137,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2133,7 +2157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2153,7 +2177,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2173,7 +2197,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2193,7 +2217,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2213,7 +2237,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2233,7 +2257,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2253,7 +2277,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2273,7 +2297,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2293,7 +2317,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2313,7 +2337,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2333,7 +2357,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2353,7 +2377,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2373,7 +2397,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2393,7 +2417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2413,7 +2437,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2433,7 +2457,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2453,7 +2477,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2473,7 +2497,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2493,7 +2517,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2513,7 +2537,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2533,7 +2557,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2553,7 +2577,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -2573,7 +2597,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -2593,7 +2617,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -2613,7 +2637,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -2633,7 +2657,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -2653,7 +2677,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -2673,7 +2697,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>115</v>
       </c>
@@ -2691,7 +2715,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2700,38 +2724,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A45F94C-4332-474F-A805-1F4398792F53}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="11.26953125" customWidth="1"/>
-    <col min="14" max="14" width="7.7265625" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" customWidth="1"/>
-    <col min="16" max="16" width="8.54296875" customWidth="1"/>
-    <col min="17" max="17" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" customWidth="1"/>
+    <col min="17" max="17" width="13.21875" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="12.36328125" customWidth="1"/>
-    <col min="20" max="20" width="35.1796875" style="11" customWidth="1"/>
-    <col min="21" max="21" width="11.08984375" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" customWidth="1"/>
+    <col min="20" max="20" width="35.21875" style="11" customWidth="1"/>
+    <col min="21" max="21" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>370</v>
       </c>
@@ -2773,7 +2797,7 @@
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2835,7 +2859,7 @@
       <c r="V2" s="10"/>
       <c r="W2" s="10"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -2882,7 +2906,7 @@
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -2919,7 +2943,7 @@
       <c r="V4" s="10"/>
       <c r="W4" s="10"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2956,7 +2980,7 @@
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -2993,7 +3017,7 @@
       <c r="V6" s="10"/>
       <c r="W6" s="10"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -3030,7 +3054,7 @@
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -3067,7 +3091,7 @@
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -3104,7 +3128,7 @@
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -3141,7 +3165,7 @@
       <c r="V10" s="10"/>
       <c r="W10" s="10"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -3178,7 +3202,7 @@
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -3215,7 +3239,7 @@
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -3252,7 +3276,7 @@
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -3289,7 +3313,7 @@
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -3326,7 +3350,7 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -3363,7 +3387,7 @@
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -3400,7 +3424,7 @@
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -3437,7 +3461,7 @@
       <c r="V18" s="10"/>
       <c r="W18" s="10"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -3474,7 +3498,7 @@
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -3511,7 +3535,7 @@
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -3548,7 +3572,7 @@
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -3585,7 +3609,7 @@
       <c r="V22" s="10"/>
       <c r="W22" s="10"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -3622,7 +3646,7 @@
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -3659,7 +3683,7 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -3696,7 +3720,7 @@
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
     </row>
-    <row r="26" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -3734,7 +3758,7 @@
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
-    <row r="27" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -3772,7 +3796,7 @@
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
-    <row r="28" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>25</v>
       </c>
@@ -3810,7 +3834,7 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
-    <row r="29" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>26</v>
       </c>
@@ -3848,7 +3872,7 @@
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
-    <row r="30" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>27</v>
       </c>
@@ -3886,7 +3910,7 @@
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
-    <row r="31" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>28</v>
       </c>
@@ -3924,7 +3948,7 @@
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
-    <row r="32" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -3962,7 +3986,7 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>115</v>
       </c>
@@ -4004,6 +4028,60 @@
       </c>
       <c r="T33" s="12" t="s">
         <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4032,21 +4110,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2DE56D-581A-4F93-90AE-92F59265FE4A}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.26953125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" customWidth="1"/>
-    <col min="4" max="4" width="26.08984375" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
         <v>370</v>
       </c>
@@ -4057,7 +4135,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4077,7 +4155,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -4097,7 +4175,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -4117,7 +4195,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -4137,7 +4215,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -4157,7 +4235,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -4177,7 +4255,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -4197,7 +4275,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -4217,7 +4295,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -4237,7 +4315,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -4257,7 +4335,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -4277,7 +4355,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -4297,7 +4375,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -4317,7 +4395,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -4337,7 +4415,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -4357,7 +4435,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -4377,7 +4455,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -4397,7 +4475,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -4417,7 +4495,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -4437,7 +4515,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -4457,7 +4535,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -4477,25 +4555,25 @@
         <v>514</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>164</v>
+        <v>538</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>369</v>
+        <v>534</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="9" t="s">
-        <v>296</v>
+        <v>540</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -4503,7 +4581,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -4511,7 +4589,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -4519,7 +4597,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -4527,7 +4605,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -4535,7 +4613,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -4543,7 +4621,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -4551,7 +4629,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -4559,7 +4637,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
@@ -4573,6 +4651,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4581,19 +4660,19 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
-    <col min="5" max="5" width="19.36328125" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="15" t="s">
         <v>370</v>
@@ -4605,7 +4684,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4625,7 +4704,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -4645,7 +4724,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -4665,7 +4744,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -4685,7 +4764,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -4705,7 +4784,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -4725,7 +4804,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -4745,7 +4824,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -4765,7 +4844,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -4785,7 +4864,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -4805,7 +4884,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -4825,25 +4904,25 @@
         <v>497</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>164</v>
+        <v>539</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>369</v>
+        <v>536</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="9" t="s">
-        <v>296</v>
+        <v>541</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -4851,7 +4930,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -4859,7 +4938,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -4867,7 +4946,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -4875,7 +4954,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -4883,7 +4962,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -4891,7 +4970,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -4899,7 +4978,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -4907,7 +4986,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
